--- a/biology/Histoire de la zoologie et de la botanique/Hermann_Schalow/Hermann_Schalow.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Hermann_Schalow/Hermann_Schalow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hermann Schalow, né le 17 janvier 1852 à Berlin et mort le 9 décembre 1925 à Berlin, est un banquier et un ornithologue amateur allemand.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il étudie chez Jean Louis Cabanis (1816-1906) et travaille avec Anton Reichenow (1847-1941). De 1894 à 1907, il est vice-président de la Deutsche Ornithologen-Gesellschaft (Société des ornithologues allemands) dont il est également le président de 1907 à 1921.
 Il est notamment l’auteur de Die Musophagidae (1886) et Beiträge zur Vogelfauna der Mark Brandenburg (1919). Schalow consacre également une monographie aux oiseaux de l’Arctique, Die Vögel der Arktis (1905) et y décrit 270 espèces. Il assure l’édition du récit de voyage de Richard Böhm (1854-1884) en Afrique de l’Ouest, à Zanzibar et à Tanganika : Von Sansibar zum Tanganjika, Briefe aus Ostafrika von Dr Richard Böhm (J. A. Brockhaus, Leipzig, 1888).
